--- a/public/technology-map/10004_policies_technology-catalog_wide-area-inspection_table_02_20240308.xlsx
+++ b/public/technology-map/10004_policies_technology-catalog_wide-area-inspection_table_02_20240308.xlsx
@@ -2341,11 +2341,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009E912D768F96D94896333B9C117ADD17" ma:contentTypeVersion="20" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="8f85ceab67902669939a5107acab9375">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="282d2848-1e61-4f57-abe5-548f89bb406a" xmlns:ns3="b758b80c-b7b2-4ee0-9bbd-eeae84deb832" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc75efa6dccd089e78251daeb7537660" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="282d2848-1e61-4f57-abe5-548f89bb406a"/>
-    <xsd:import namespace="b758b80c-b7b2-4ee0-9bbd-eeae84deb832"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003C08ACAE43F5CD40BD49563E4167DBA5" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e5cf3576106fad77928c8c9c928fc992">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95a18445-f875-4685-a8fc-5534d722d914" xmlns:ns3="ed9888db-c08f-4880-8c8f-9300fabbe8b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be27332847f8f1576104ee7bbefcdd2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="95a18445-f875-4685-a8fc-5534d722d914"/>
+    <xsd:import namespace="ed9888db-c08f-4880-8c8f-9300fabbe8b3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2354,22 +2353,15 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -2378,21 +2370,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="16" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="282d2848-1e61-4f57-abe5-548f89bb406a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="95a18445-f875-4685-a8fc-5534d722d914" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2405,24 +2383,22 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2432,76 +2408,35 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="26" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="27" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b758b80c-b7b2-4ee0-9bbd-eeae84deb832" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ed9888db-c08f-4880-8c8f-9300fabbe8b3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e3881962-ab3e-49d3-8ce4-38c62ff91f51}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b758b80c-b7b2-4ee0-9bbd-eeae84deb832">
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d5f478d0-a7eb-4bdf-94aa-3975205f24e9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed9888db-c08f-4880-8c8f-9300fabbe8b3">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -2624,25 +2559,16 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="282d2848-1e61-4f57-abe5-548f89bb406a">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95a18445-f875-4685-a8fc-5534d722d914">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b758b80c-b7b2-4ee0-9bbd-eeae84deb832" xsi:nil="true"/>
-    <SharedWithUsers xmlns="b758b80c-b7b2-4ee0-9bbd-eeae84deb832">
-      <UserInfo>
-        <DisplayName>広報・ウェブサイト更新連絡 メンバー</DisplayName>
-        <AccountId>315</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="ed9888db-c08f-4880-8c8f-9300fabbe8b3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20AC8398-DF8F-481E-B562-3F715BDF3053}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A96E6B44-97B2-4405-8897-AE4BF1E2115E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
